--- a/Timo10.xlsx
+++ b/Timo10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natha\Documents\MASTER1\LGCIV2041_numerical_analysis\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AF695B4-B4AA-401E-9AB6-58C6D5EE47A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697B0D0E-0C2B-4F2F-BF1C-C67079082AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C925C52C-B148-45E8-8D33-D5940EE41C71}"/>
   </bookViews>
@@ -33,6 +33,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Euler</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -99,40 +107,31 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>_temp_1</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>_temp_1</c:v>
+            <c:v>Timoshenko</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>xyToExcel!$A$1:$A$101</c:f>
               <c:numCache>
@@ -443,8 +442,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>xyToExcel!$B$1:$B$101</c:f>
               <c:numCache>
@@ -755,11 +754,661 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B5C7-417D-AFB7-CC91BA221591}"/>
+              <c16:uniqueId val="{00000000-BDF9-4A7D-AE9B-8BAD0CA77947}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Euler-Bernoulli</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>xyToExcel!$A$1:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10000038146972656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20000076293945313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29999923706054688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39999961853027344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60000038146972656</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70000076293945313</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999923706054688</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999961853027344</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000003814697266</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2000007629394531</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2999992370605469</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3999996185302734</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000003814697266</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000007629394531</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7999992370605469</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8999996185302734</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000007629394531</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999992370605469</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000015258789063</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7000007629394531</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7999992370605469</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000015258789063</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2000007629394531</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2999992370605469</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000015258789063</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.5999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7000007629394531</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.7999992370605469</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000015258789063</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2000007629394531</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.2999992370605469</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000015258789063</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7000007629394531</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7999992370605469</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000015258789063</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2000007629394531</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.2999992370605469</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4000015258789063</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.5999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7000007629394531</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.7999992370605469</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9000015258789063</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.0999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2000007629394531</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.2999992370605469</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4000015258789063</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.5999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7000007629394531</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.7999992370605469</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9000015258789063</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.0999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2000007629394531</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.2999992370605469</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4000015258789063</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.5999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7000007629394531</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.7999992370605469</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9000015258789063</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.0999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.2000007629394531</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.2999992370605469</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4000015258789063</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.5999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.7000007629394531</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.7999992370605469</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9000015258789063</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.0999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.2000007629394531</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.2999992370605469</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4000015258789063</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.5999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.7000007629394531</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.7999992370605469</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9000015258789063</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>xyToExcel!$D$1:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-2.000000047484456E-32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.3946859073475935E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.5574096121708862E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.1455885871546343E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8058591599110514E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.9333335229894146E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.5248109826352447E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.1577092664083466E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.5086903295014054E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.9051182607654482E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.346666733501479E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.8330154600553215E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.3638442982919514E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.938821901101619E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.5576508273370564E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.2200001664459705E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.9255497762933373E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.6739792237058282E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7.4649532325565815E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.2981830928474665E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-9.1733335284516215E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.0090066352859139E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.1048114392906427E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.2047084746882319E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.3086736435070634E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.416666666045785E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.5286596026271582E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.6446249792352319E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.7645217012614012E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.8883271841332316E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.0159999839961529E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.1475127432495356E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.282838337123394E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.4219348561018705E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.564780879765749E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.7113333344459534E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.8615656774491072E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3.0154518317431211E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.1729480251669884E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.3340344671159983E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.4986666869372129E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.6668188404291868E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3.838465316221118E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-4.0135611779987812E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-4.1920882649719715E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-4.3739997781813145E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-4.5592719689011574E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-4.747878760099411E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-4.9397745169699192E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-5.1349415443837643E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-5.3333332762122154E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-5.5349250324070454E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-5.7396921329200268E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-5.9475875459611416E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-6.158594973385334E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-6.3726664520800114E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-6.589778233319521E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-6.8099056370556355E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-7.0330007001757622E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-7.2590489871799946E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-7.4880002066493034E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-7.7198310755193233E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-7.9545192420482635E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-8.1920139491558075E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-8.4323026239871979E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-8.6753331124782562E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-8.9210839942097664E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-9.1695329174399376E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-9.4206277281045914E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-9.6743553876876831E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-9.9306665360927582E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.0189537890255451E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.0450946167111397E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.0714840143918991E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.0981209576129913E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.1250000447034836E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-1.1521190404891968E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.1794759891927242E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.2070653960108757E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.2348863296210766E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.2629332952201366E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-1.2912043370306492E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1.3196973130106926E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-1.3484067283570766E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-1.3773316517472267E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1.40646668151021E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-1.435809675604105E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-1.4653586782515049E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-1.4951080083847046E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-1.5250570140779018E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.5552000142633915E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.5855349600315094E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.6160599887371063E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1.6467694193124771E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-1.6776623204350471E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.7087332904338837E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-1.7399802803993225E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-1.7714012414216995E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-1.8029907718300819E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1.8347477540373802E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.8666666001081467E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDF9-4A7D-AE9B-8BAD0CA77947}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -771,84 +1420,300 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1975414831"/>
-        <c:axId val="1978524751"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1975414831"/>
+        <c:axId val="1493239199"/>
+        <c:axId val="1493234399"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1493239199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>X distance along path</a:t>
+                  <a:rPr lang="fr-BE"/>
+                  <a:t>x</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="fr-BE" baseline="0"/>
+                  <a:t> [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-BE"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1978524751"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1493234399"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1978524751"/>
+        <c:axId val="1493234399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Displacement</a:t>
+                  <a:rPr lang="fr-BE"/>
+                  <a:t>u</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="fr-BE" baseline="-25000"/>
+                  <a:t>yo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-BE"/>
+                  <a:t>(x)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-BE" baseline="0"/>
+                  <a:t> [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-BE"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1975414831"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1493239199"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -861,6 +1726,31 @@
     </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -869,27 +1759,583 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
+        <xdr:cNvPr id="4" name="Graphique 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83162024-699E-A04E-683D-0E9A3116FEFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C6F6A2-1938-957E-35D6-16CB226E2CF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,9 +2357,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -951,7 +2397,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1057,7 +2503,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1199,7 +2645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1207,818 +2653,1126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1556312D-AE01-4D2D-A261-796590011B95}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>-2.000000047484456E-32</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>-2.000000047484456E-32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.10000038146972656</v>
       </c>
       <c r="B2">
         <v>-3.1468457564187702E-6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>-2.3946859073475935E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.20000076293945313</v>
       </c>
       <c r="B3">
         <v>-1.106172931031324E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>-9.5574096121708862E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.29999923706054688</v>
       </c>
       <c r="B4">
         <v>-2.3712351321591996E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>-2.1455885871546343E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.39999961853027344</v>
       </c>
       <c r="B5">
         <v>-4.1067214624490589E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>-3.8058591599110514E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.5</v>
       </c>
       <c r="B6">
         <v>-6.309411401161924E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>-5.9333335229894146E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.60000038146972656</v>
       </c>
       <c r="B7">
         <v>-8.9761058916337788E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>-8.5248109826352447E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.70000076293945313</v>
       </c>
       <c r="B8">
         <v>-1.2103603512514383E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>-1.1577092664083466E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.79999923706054688</v>
       </c>
       <c r="B9">
         <v>-1.5688627900090069E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>-1.5086903295014054E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.89999961853027344</v>
       </c>
       <c r="B10">
         <v>-1.9728124607354403E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>-1.9051182607654482E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
         <v>-2.421882381895557E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>-2.346666733501479E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.1000003814697266</v>
       </c>
       <c r="B12">
         <v>-2.9157527023926377E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>-2.8330154600553215E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.2000007629394531</v>
       </c>
       <c r="B13">
         <v>-3.4541034256108105E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>-3.3638442982919514E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.2999992370605469</v>
       </c>
       <c r="B14">
         <v>-4.0366023313254118E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>-3.938821901101619E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.3999996185302734</v>
       </c>
       <c r="B15">
         <v>-4.6629525604657829E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>-4.5576508273370564E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.5</v>
       </c>
       <c r="B16">
         <v>-5.3328234935179353E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>-5.2200001664459705E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.6000003814697266</v>
       </c>
       <c r="B17">
         <v>-6.0458946973085403E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>-5.9255497762933373E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.7000007629394531</v>
       </c>
       <c r="B18">
         <v>-6.8018463207408786E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>-6.6739792237058282E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.7999992370605469</v>
       </c>
       <c r="B19">
         <v>-7.6003419235348701E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>-7.4649532325565815E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.8999996185302734</v>
       </c>
       <c r="B20">
         <v>-8.4410927956923842E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>-8.2981830928474665E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
         <v>-9.3237648252397776E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>-9.1733335284516215E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2.0999984741210938</v>
       </c>
       <c r="B22">
         <v>-1.0248018661513925E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>-1.0090066352859139E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2.2000007629394531</v>
       </c>
       <c r="B23">
         <v>-1.1213589459657669E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>-1.1048114392906427E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2.2999992370605469</v>
       </c>
       <c r="B24">
         <v>-1.2220081407576799E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>-1.2047084746882319E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2.4000015258789063</v>
       </c>
       <c r="B25">
         <v>-1.3267253525555134E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>-1.3086736435070634E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2.5</v>
       </c>
       <c r="B26">
         <v>-1.4354705344885588E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>-1.416666666045785E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2.5999984741210938</v>
       </c>
       <c r="B27">
         <v>-1.5482157468795776E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>-1.5286596026271582E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2.7000007629394531</v>
       </c>
       <c r="B28">
         <v>-1.6649331664666533E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <v>-1.6446249792352319E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2.7999992370605469</v>
       </c>
       <c r="B29">
         <v>-1.7855820478871465E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <v>-1.7645217012614012E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2.9000015258789063</v>
       </c>
       <c r="B30">
         <v>-1.9101398065686226E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <v>-1.8883271841332316E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31">
         <v>-2.0385647658258677E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <v>-2.0159999839961529E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3.0999984741210938</v>
       </c>
       <c r="B32">
         <v>-2.1708295680582523E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <v>-2.1475127432495356E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>3.2000007629394531</v>
       </c>
       <c r="B33">
         <v>-2.3069074377417564E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <v>-2.282838337123394E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>3.2999992370605469</v>
       </c>
       <c r="B34">
         <v>-2.446755999699235E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <v>-2.4219348561018705E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>3.4000015258789063</v>
       </c>
       <c r="B35">
         <v>-2.5903540663421154E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <v>-2.564780879765749E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>3.5</v>
       </c>
       <c r="B36">
         <v>-2.7376587968319654E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <v>-2.7113333344459534E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>3.5999984741210938</v>
       </c>
       <c r="B37">
         <v>-2.8886434156447649E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D37">
+        <v>-2.8615656774491072E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>3.7000007629394531</v>
       </c>
       <c r="B38">
         <v>-3.0432816129177809E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <v>-3.0154518317431211E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>3.7999992370605469</v>
       </c>
       <c r="B39">
         <v>-3.2015300821512938E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <v>-3.1729480251669884E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>3.9000015258789063</v>
       </c>
       <c r="B40">
         <v>-3.3633685670793056E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D40">
+        <v>-3.3340344671159983E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41">
         <v>-3.5287528298795223E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D41">
+        <v>-3.4986666869372129E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4.0999984741210938</v>
       </c>
       <c r="B42">
         <v>-3.6976572591811419E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D42">
+        <v>-3.6668188404291868E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>4.2000007629394531</v>
       </c>
       <c r="B43">
         <v>-3.8700560107827187E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D43">
+        <v>-3.838465316221118E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>4.2999992370605469</v>
       </c>
       <c r="B44">
         <v>-4.0459041483700275E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D44">
+        <v>-4.0135611779987812E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>4.4000015258789063</v>
       </c>
       <c r="B45">
         <v>-4.2251828126609325E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D45">
+        <v>-4.1920882649719715E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>4.5</v>
       </c>
       <c r="B46">
         <v>-4.4078468345105648E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D46">
+        <v>-4.3739997781813145E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>4.5999984741210938</v>
       </c>
       <c r="B47">
         <v>-4.5938710682094097E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D47">
+        <v>-4.5592719689011574E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>4.7000007629394531</v>
       </c>
       <c r="B48">
         <v>-4.7832303680479527E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D48">
+        <v>-4.747878760099411E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>4.7999992370605469</v>
       </c>
       <c r="B49">
         <v>-4.9758781678974628E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D49">
+        <v>-4.9397745169699192E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>4.9000015258789063</v>
       </c>
       <c r="B50">
         <v>-5.1717972382903099E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D50">
+        <v>-5.1349415443837643E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>5</v>
       </c>
       <c r="B51">
         <v>-5.3709410130977631E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <v>-5.3333332762122154E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>5.0999984741210938</v>
       </c>
       <c r="B52">
         <v>-5.573284812271595E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D52">
+        <v>-5.5349250324070454E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>5.2000007629394531</v>
       </c>
       <c r="B53">
         <v>-5.7788044214248657E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D53">
+        <v>-5.7396921329200268E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>5.2999992370605469</v>
       </c>
       <c r="B54">
         <v>-5.9874518774449825E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D54">
+        <v>-5.9475875459611416E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>5.4000015258789063</v>
       </c>
       <c r="B55">
         <v>-6.1992118135094643E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D55">
+        <v>-6.158594973385334E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>5.5</v>
       </c>
       <c r="B56">
         <v>-6.4140353351831436E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D56">
+        <v>-6.3726664520800114E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>5.5999984741210938</v>
       </c>
       <c r="B57">
         <v>-6.6318986937403679E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D57">
+        <v>-6.589778233319521E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>5.7000007629394531</v>
       </c>
       <c r="B58">
         <v>-6.8527786061167717E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D58">
+        <v>-6.8099056370556355E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>5.7999992370605469</v>
       </c>
       <c r="B59">
         <v>-7.0766261778771877E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D59">
+        <v>-7.0330007001757622E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>5.9000015258789063</v>
       </c>
       <c r="B60">
         <v>-7.3034260421991348E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D60">
+        <v>-7.2590489871799946E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>6</v>
       </c>
       <c r="B61">
         <v>-7.5331293046474457E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D61">
+        <v>-7.4880002066493034E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>6.0999984741210938</v>
       </c>
       <c r="B62">
         <v>-7.7657126821577549E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D62">
+        <v>-7.7198310755193233E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>6.2000007629394531</v>
       </c>
       <c r="B63">
         <v>-8.0011533573269844E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D63">
+        <v>-7.9545192420482635E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>6.2999992370605469</v>
       </c>
       <c r="B64">
         <v>-8.239399641752243E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D64">
+        <v>-8.1920139491558075E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>6.4000015258789063</v>
       </c>
       <c r="B65">
         <v>-8.4804398939013481E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D65">
+        <v>-8.4323026239871979E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>6.5</v>
       </c>
       <c r="B66">
         <v>-8.7242238223552704E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D66">
+        <v>-8.6753331124782562E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>6.5999984741210938</v>
       </c>
       <c r="B67">
         <v>-8.9707262814044952E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D67">
+        <v>-8.9210839942097664E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>6.7000007629394531</v>
       </c>
       <c r="B68">
         <v>-9.2199267819523811E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D68">
+        <v>-9.1695329174399376E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>6.7999992370605469</v>
       </c>
       <c r="B69">
         <v>-9.4717741012573242E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D69">
+        <v>-9.4206277281045914E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>6.9000015258789063</v>
       </c>
       <c r="B70">
         <v>-9.7262542694807053E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D70">
+        <v>-9.6743553876876831E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>7</v>
       </c>
       <c r="B71">
         <v>-9.9833179265260696E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D71">
+        <v>-9.9306665360927582E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>7.0999984741210938</v>
       </c>
       <c r="B72">
         <v>-1.0242940858006477E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D72">
+        <v>-1.0189537890255451E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>7.2000007629394531</v>
       </c>
       <c r="B73">
         <v>-1.0505101643502712E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D73">
+        <v>-1.0450946167111397E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>7.2999992370605469</v>
       </c>
       <c r="B74">
         <v>-1.0769748128950596E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D74">
+        <v>-1.0714840143918991E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>7.4000015258789063</v>
       </c>
       <c r="B75">
         <v>-1.1036869138479233E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D75">
+        <v>-1.0981209576129913E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>7.5</v>
       </c>
       <c r="B76">
         <v>-1.130641158670187E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D76">
+        <v>-1.1250000447034836E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>7.5999984741210938</v>
       </c>
       <c r="B77">
         <v>-1.1578354053199291E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D77">
+        <v>-1.1521190404891968E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>7.7000007629394531</v>
       </c>
       <c r="B78">
         <v>-1.1852676048874855E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D78">
+        <v>-1.1794759891927242E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>7.7999992370605469</v>
       </c>
       <c r="B79">
         <v>-1.2129321694374084E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D79">
+        <v>-1.2070653960108757E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>7.9000015258789063</v>
       </c>
       <c r="B80">
         <v>-1.2408283539116383E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D80">
+        <v>-1.2348863296210766E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>8</v>
       </c>
       <c r="B81">
         <v>-1.2689505703747272E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D81">
+        <v>-1.2629332952201366E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>8.0999984741210938</v>
       </c>
       <c r="B82">
         <v>-1.2972968630492687E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D82">
+        <v>-1.2912043370306492E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>8.2000007629394531</v>
       </c>
       <c r="B83">
         <v>-1.3258649967610836E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <v>-1.3196973130106926E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>8.2999992370605469</v>
       </c>
       <c r="B84">
         <v>-1.3546495698392391E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D84">
+        <v>-1.3484067283570766E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>8.4000015258789063</v>
       </c>
       <c r="B85">
         <v>-1.3836497440934181E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D85">
+        <v>-1.3773316517472267E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>8.5</v>
       </c>
       <c r="B86">
         <v>-1.4128600247204304E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D86">
+        <v>-1.40646668151021E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>8.5999984741210938</v>
       </c>
       <c r="B87">
         <v>-1.4422782696783543E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D87">
+        <v>-1.435809675604105E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>8.7000007629394531</v>
       </c>
       <c r="B88">
         <v>-1.4719024300575256E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D88">
+        <v>-1.4653586782515049E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>8.7999992370605469</v>
       </c>
       <c r="B89">
         <v>-1.5017270110547543E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D89">
+        <v>-1.4951080083847046E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>8.9000015258789063</v>
       </c>
       <c r="B90">
         <v>-1.531751174479723E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D90">
+        <v>-1.5250570140779018E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>9</v>
       </c>
       <c r="B91">
         <v>-1.5619694255292416E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D91">
+        <v>-1.5552000142633915E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>9.0999984741210938</v>
       </c>
       <c r="B92">
         <v>-1.5923796221613884E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D92">
+        <v>-1.5855349600315094E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>9.2000007629394531</v>
       </c>
       <c r="B93">
         <v>-1.6229799017310143E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D93">
+        <v>-1.6160599887371063E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>9.2999992370605469</v>
       </c>
       <c r="B94">
         <v>-1.653764396905899E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D94">
+        <v>-1.6467694193124771E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>9.4000015258789063</v>
       </c>
       <c r="B95">
         <v>-1.684732548892498E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D95">
+        <v>-1.6776623204350471E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>9.5</v>
       </c>
       <c r="B96">
         <v>-1.7158787697553635E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D96">
+        <v>-1.7087332904338837E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>9.5999984741210938</v>
       </c>
       <c r="B97">
         <v>-1.7472010105848312E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D97">
+        <v>-1.7399802803993225E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>9.7000007629394531</v>
       </c>
       <c r="B98">
         <v>-1.7786972224712372E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D98">
+        <v>-1.7714012414216995E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>9.7999992370605469</v>
       </c>
       <c r="B99">
         <v>-1.8103618174791336E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D99">
+        <v>-1.8029907718300819E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>9.9000015258789063</v>
       </c>
       <c r="B100">
         <v>-1.8421940505504608E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D100">
+        <v>-1.8347477540373802E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>10</v>
       </c>
       <c r="B101">
         <v>-1.8741881474852562E-2</v>
+      </c>
+      <c r="D101">
+        <v>-1.8666666001081467E-2</v>
       </c>
     </row>
   </sheetData>
